--- a/Listas desplegables.xlsx
+++ b/Listas desplegables.xlsx
@@ -1,14 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{900FE9DE-5E9C-4651-B8C9-09D0B4BBA838}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$F$3:$F$11</definedName>
+    <definedName name="Alajuela">Hoja1!$XER$8:$XER$10</definedName>
+    <definedName name="EstadoCivil">Hoja1!$XFB$17:$XFB$22</definedName>
+    <definedName name="Guanacaste">Hoja1!$XEZ$8:$XEZ$10</definedName>
+    <definedName name="Heredia">Hoja1!$XET$8:$XET$10</definedName>
+    <definedName name="Limon">Hoja1!$XEX$8:$XEX$10</definedName>
+    <definedName name="Provincias">Hoja1!$XFD$7:$XFD$12</definedName>
+    <definedName name="Puntarenas">Hoja1!$XEV$8:$XEV$10</definedName>
+    <definedName name="San_Jose">Hoja1!$XEP$8:$XEP$10</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +30,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia </t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincias </t>
+  </si>
+  <si>
+    <t>Alajuela</t>
+  </si>
+  <si>
+    <t>Heredia</t>
+  </si>
+  <si>
+    <t>Puntarenas</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Guanacaste</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Kath</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Juanca</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Viudo</t>
+  </si>
+  <si>
+    <t>Divorciado</t>
+  </si>
+  <si>
+    <t>Union Libre</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Cantones</t>
+  </si>
+  <si>
+    <t>Tibas</t>
+  </si>
+  <si>
+    <t>San Jose1</t>
+  </si>
+  <si>
+    <t>San jose 2</t>
+  </si>
+  <si>
+    <t>Alajuela2</t>
+  </si>
+  <si>
+    <t>Alajuela3</t>
+  </si>
+  <si>
+    <t>fsad</t>
+  </si>
+  <si>
+    <t>dfasd</t>
+  </si>
+  <si>
+    <t>dfad</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +171,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,17 +201,286 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +491,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{731212ED-86D0-40CB-BDBC-7D35E8FBE802}" name="Tabla8" displayName="Tabla8" ref="XFB16:XFB22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="XFB16:XFB22" xr:uid="{61DD51D2-5FD5-4E48-A406-F41E713AE23A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{218027D7-C9EF-442B-B35F-FACAD37CBF5F}" name="Estado Civil" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0829510C-BA46-40AA-82D7-03B80AEE0B1B}" name="Tabla15" displayName="Tabla15" ref="XEP7:XEP10" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="XEP7:XEP10" xr:uid="{2C0A9DA8-1CC7-4203-B3FD-554AC1931CF6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9D07CDA6-08BC-4D33-A348-5AF4C28BDED9}" name="San Jose"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{259478EC-D183-4BBE-AD23-2A1985CD7359}" name="Tabla16" displayName="Tabla16" ref="XER7:XER10" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="XER7:XER10" xr:uid="{DCC95AF5-080F-421D-957D-60B106BA70F2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{61C494AD-5217-4E44-B76C-3D2C564F7666}" name="Alajuela"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D73D3DF6-DB39-4219-8121-E23608862C15}" name="Tabla17" displayName="Tabla17" ref="XET7:XET10" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="XET7:XET10" xr:uid="{9815ED06-2E56-4D94-8727-DD3E6E59F466}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4EE6C995-83F8-4262-BA2B-194ADF5CCDB1}" name="Heredia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D6E549DE-A972-441F-8710-48E083D74C16}" name="Tabla18" displayName="Tabla18" ref="XEV7:XEV10" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="XEV7:XEV10" xr:uid="{D6E976BB-3288-480A-89B7-B95A888778E9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{60CCAA01-643C-4CDF-83B0-554D63BE654C}" name="Puntarenas"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{832B5C5A-EE71-47D9-B68B-3D4FCCADEF6E}" name="Tabla19" displayName="Tabla19" ref="XEX7:XEX10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="XEX7:XEX10" xr:uid="{16DECC6C-CEE9-428B-8EAE-03F9E4374F9C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{6126F3C8-C833-4847-86D1-BF2F1B999309}" name="Limon"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0CD7E05C-F36A-4A4E-A901-0DB02549A9DD}" name="Tabla20" displayName="Tabla20" ref="XEZ7:XEZ10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="XEZ7:XEZ10" xr:uid="{3F13BE14-C9B4-4CF1-AAE1-4F9C9C9A4625}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7851C70D-EA7B-4502-87D8-6C6EC60B44ED}" name="Guanacaste"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +825,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="XEL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="XET2" sqref="XET2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="16370" max="16370" width="10.7109375" customWidth="1"/>
+    <col min="16372" max="16372" width="10.7109375" customWidth="1"/>
+    <col min="16374" max="16374" width="10.85546875" customWidth="1"/>
+    <col min="16376" max="16376" width="11.28515625" customWidth="1"/>
+    <col min="16378" max="16378" width="13" customWidth="1"/>
+    <col min="16380" max="16380" width="12.28515625" customWidth="1"/>
+    <col min="16381" max="16381" width="6.42578125" customWidth="1"/>
+    <col min="16382" max="16382" width="14.5703125" customWidth="1"/>
+    <col min="16384" max="16384" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="XFD6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="XEP7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="XEQ7" s="2"/>
+      <c r="XER7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="XES7" s="2"/>
+      <c r="XET7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="XEU7" s="2"/>
+      <c r="XEV7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="XEW7" s="2"/>
+      <c r="XEX7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="XEY7" s="2"/>
+      <c r="XEZ7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="XFD7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="XEP8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XEQ8" s="2"/>
+      <c r="XER8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="XES8" s="2"/>
+      <c r="XET8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="XEU8" s="2"/>
+      <c r="XEV8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="XEW8" s="2"/>
+      <c r="XEX8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="XEY8" s="2"/>
+      <c r="XEZ8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="XEP9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="XEQ9" s="2"/>
+      <c r="XER9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XES9" s="2"/>
+      <c r="XET9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="XEU9" s="2"/>
+      <c r="XEV9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="XEW9" s="2"/>
+      <c r="XEX9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="XEY9" s="2"/>
+      <c r="XEZ9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="XEP10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="XEQ10" s="2"/>
+      <c r="XER10" s="2">
+        <v>4</v>
+      </c>
+      <c r="XES10" s="2"/>
+      <c r="XET10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="XEU10" s="2"/>
+      <c r="XEV10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="XEW10" s="2"/>
+      <c r="XEX10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="XEY10" s="2"/>
+      <c r="XEZ10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="XFD10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="XFD11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="XFD12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19 16370:16384" x14ac:dyDescent="0.25">
+      <c r="XFB16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="16382:16382" x14ac:dyDescent="0.25">
+      <c r="XFB17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="16382:16382" x14ac:dyDescent="0.25">
+      <c r="XFB18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="16382:16382" x14ac:dyDescent="0.25">
+      <c r="XFB19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="16382:16382" x14ac:dyDescent="0.25">
+      <c r="XFB20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="16382:16382" x14ac:dyDescent="0.25">
+      <c r="XFB21" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="16382:16382" x14ac:dyDescent="0.25">
+      <c r="XFB22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{3F37AF80-3198-4DFA-B811-64F569F51C17}">
+      <formula1>Provincias</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{BF716C79-7C0F-482E-990E-9204EAB9FDCC}">
+      <formula1>EstadoCivil</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="7">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>